--- a/data/trans_dic/P2A_senso_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P2A_senso_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.007411551101651728</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.006583606402232003</v>
+        <v>0.006583606402232005</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01267983045378544</v>
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0</v>
+        <v>0.003332442907654165</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01672170327326497</v>
+        <v>0.01650477028772442</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
@@ -720,28 +720,28 @@
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004068827455227336</v>
+        <v>0.004092728126388714</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01813619856681015</v>
+        <v>0.01710083989161584</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.006967320393873323</v>
+        <v>0.006819171681643994</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.008757082311418342</v>
+        <v>0.009134499383827068</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.004872034098268181</v>
+        <v>0.0052549808396559</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02234718598656186</v>
+        <v>0.02135390301827331</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.006548717025433698</v>
+        <v>0.006392210055894614</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.006551958342185085</v>
+        <v>0.006466537004332455</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0373004304790086</v>
+        <v>0.03632797038556104</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06339879092204014</v>
+        <v>0.06536153771629521</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02560031464939526</v>
+        <v>0.02364842579080234</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02571225413392726</v>
+        <v>0.02081823981040932</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03364215295372151</v>
+        <v>0.03752998237025235</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06810590209932819</v>
+        <v>0.06811435982086765</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04263066872370769</v>
+        <v>0.04367069582641903</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03175488337000968</v>
+        <v>0.03141913227933727</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02693262502133666</v>
+        <v>0.02771117288402301</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05425823660857861</v>
+        <v>0.05403122638711182</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02508425172506652</v>
+        <v>0.02527402606536709</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02218362983022815</v>
+        <v>0.02067828953005747</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.004116904225212304</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.05764792915090699</v>
+        <v>0.057647929150907</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.02002534768416542</v>
@@ -833,7 +833,7 @@
         <v>0.004036703551772367</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05339035465221858</v>
+        <v>0.05339035465221859</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01195156470026056</v>
+        <v>0.01311664725178887</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006069936599990283</v>
+        <v>0.006005998348412055</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03181532384464686</v>
+        <v>0.03229506487603684</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.006479438065848432</v>
+        <v>0.008040660630773999</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.009723173887823575</v>
+        <v>0.009790235699784175</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04275492396004515</v>
+        <v>0.04132012978030979</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0119633708580797</v>
+        <v>0.01250197562994622</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.009663595695225111</v>
+        <v>0.0100191491168415</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0009922177348944783</v>
+        <v>0.0009939546648721133</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04181365869088467</v>
+        <v>0.04228264194126978</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04030149450052677</v>
+        <v>0.0419207184595423</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0331933421095993</v>
+        <v>0.03005592590394861</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01307094938131898</v>
+        <v>0.01371069326692577</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07245109867914333</v>
+        <v>0.07055147890392133</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0302794316197049</v>
+        <v>0.03237524037997512</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03482971139725259</v>
+        <v>0.03352975387698619</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01365233475287452</v>
+        <v>0.01423706177496367</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07674756168696338</v>
+        <v>0.07681065811312483</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03041874133611516</v>
+        <v>0.03175022225509209</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.026913474379742</v>
+        <v>0.02774029689439096</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.009951654101392421</v>
+        <v>0.01022635876916523</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06830757825258031</v>
+        <v>0.06759452723082385</v>
       </c>
     </row>
     <row r="10">
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006348593754640131</v>
+        <v>0.006359303163273496</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01155172221070467</v>
+        <v>0.0109256923129059</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.002868915416536643</v>
+        <v>0.002889797976977758</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.006351094297603315</v>
+        <v>0.006545945021147915</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007392548650347899</v>
+        <v>0.007405936141112518</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001373543996657775</v>
+        <v>0.001374027043846257</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0107286188662454</v>
+        <v>0.01061147097978317</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01414317428311507</v>
+        <v>0.01739790988490567</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04544119652501524</v>
+        <v>0.04793035738889575</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02012261767762325</v>
+        <v>0.02828961182442473</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04167928732826075</v>
+        <v>0.0428651035905148</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01596978331700803</v>
+        <v>0.01385963185309533</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02841882756185239</v>
+        <v>0.02866162512589153</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01884794733335748</v>
+        <v>0.02021897709310934</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02439574389251588</v>
+        <v>0.02514756273255316</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01031169321462204</v>
+        <v>0.01114127243645701</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02931309183944438</v>
+        <v>0.02896498172170215</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01505924128234623</v>
+        <v>0.01590829706274579</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03000790483232969</v>
+        <v>0.02876301890799923</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01644591948046743</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02070423145523118</v>
+        <v>0.02070423145523117</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01142115201762167</v>
+        <v>0.01226423824799689</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002898325010798674</v>
+        <v>0.002917329508154703</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00242286386321077</v>
+        <v>0.002427483009436536</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0083006636846862</v>
+        <v>0.009052584217128987</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.004866237048150529</v>
+        <v>0.005085022936489633</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01613585507416617</v>
+        <v>0.01717680743512917</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01114944501151737</v>
+        <v>0.01069363927855235</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.009003031348389173</v>
+        <v>0.009153210655771534</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01051341138904651</v>
+        <v>0.01101843530169754</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01222890236191787</v>
+        <v>0.01120322626744962</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.008111552790841454</v>
+        <v>0.008352228788857561</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01130300431344684</v>
+        <v>0.01102991182212742</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04784484843326688</v>
+        <v>0.04536949395986681</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02741613610393404</v>
+        <v>0.02686248542295276</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02922806274171122</v>
+        <v>0.02834006664778353</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05299426323935199</v>
+        <v>0.05056852872639168</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02780971808065277</v>
+        <v>0.03124704307229467</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05397328356666061</v>
+        <v>0.0559779186996173</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04834365352342856</v>
+        <v>0.04769521990428071</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04528761288629227</v>
+        <v>0.04434064249333007</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03163463932110083</v>
+        <v>0.03072756253426114</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03327943645931106</v>
+        <v>0.03414269642257893</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03031923835247719</v>
+        <v>0.03117429140658053</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03901149244200618</v>
+        <v>0.04005720699484069</v>
       </c>
     </row>
     <row r="16">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01331424339650148</v>
+        <v>0.0127481709794299</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03786564596156959</v>
+        <v>0.04007024463125212</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
@@ -1264,26 +1264,26 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02583368121410464</v>
+        <v>0.0260652866048498</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03130808947018887</v>
+        <v>0.03051593511864752</v>
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.01281342636690027</v>
+        <v>0.01368149244151451</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02482338485322405</v>
+        <v>0.02384632073331316</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03927704801432481</v>
+        <v>0.04326782597990265</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.009665816177279362</v>
+        <v>0.008642467619976125</v>
       </c>
     </row>
     <row r="18">
@@ -1294,38 +1294,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0592824267142872</v>
+        <v>0.05787323946347137</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1179350946625407</v>
+        <v>0.1207286025265091</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02803724988549988</v>
+        <v>0.03134706821975905</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0216097357929353</v>
+        <v>0.01826813990992194</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09245271296561584</v>
+        <v>0.09147563245884414</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1017704864564978</v>
+        <v>0.1005119745849617</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.04125247923360985</v>
+        <v>0.04367996057300165</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06308605872194727</v>
+        <v>0.06310519481952816</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08915657622565652</v>
+        <v>0.09348991889787635</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01450312797484158</v>
+        <v>0.01435866341267514</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0276007106946558</v>
+        <v>0.02607636987901251</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.01394561976229682</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.04095301918356651</v>
+        <v>0.0409530191835665</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.003593027084195823</v>
@@ -1390,34 +1390,34 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0107202115609635</v>
+        <v>0.01001021323596777</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01638802890723538</v>
+        <v>0.01461063510493895</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.003378590916370499</v>
+        <v>0.003373845825365871</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003454923014268248</v>
+        <v>0.003524672008913197</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02468254686158044</v>
+        <v>0.02574410654926586</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.001902171617483184</v>
+        <v>0.001904976602431238</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.00909693829490118</v>
+        <v>0.01034903929766215</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02346555978444919</v>
+        <v>0.02351168756762624</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02264148529398166</v>
+        <v>0.01893231328304368</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01929481935133218</v>
+        <v>0.01935856977170167</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05514173062140949</v>
+        <v>0.05095804375091115</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05315777424213371</v>
+        <v>0.05135060732785949</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.01744541204723809</v>
+        <v>0.02056079592936962</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02878913492940569</v>
+        <v>0.02994853067969427</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03414965270383283</v>
+        <v>0.03607422205482547</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06384975218316681</v>
+        <v>0.06502657230197502</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01254411014017827</v>
+        <v>0.01267597241006063</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.01673519547473266</v>
+        <v>0.01898558743012523</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03534703904428127</v>
+        <v>0.0350794771169929</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04980863120094881</v>
+        <v>0.0486640361217419</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.007821412644595733</v>
+        <v>0.008854661739548349</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004445684495816246</v>
+        <v>0.004296616118123386</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006742167189896996</v>
+        <v>0.006563699036901329</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02850442010670588</v>
+        <v>0.02623224660415348</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.009221060010361966</v>
+        <v>0.009363275194754262</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01060119839436313</v>
+        <v>0.0106997209798382</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.005465501331310589</v>
+        <v>0.006411789819144049</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04893820472270758</v>
+        <v>0.04783984090241925</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01088166771942732</v>
+        <v>0.01084917411860644</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.008779499218415568</v>
+        <v>0.009336648455814176</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.007959360344522029</v>
+        <v>0.008022513015631831</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04237000551179033</v>
+        <v>0.04174298889586413</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0289402848747356</v>
+        <v>0.03053266194717652</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0208779986314844</v>
+        <v>0.02128866220580222</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02899993987375698</v>
+        <v>0.02904544588365917</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06115888166887622</v>
+        <v>0.05999440659607133</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03065631986676031</v>
+        <v>0.03150760046687864</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0324607759230412</v>
+        <v>0.03491247395390346</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02478090704503155</v>
+        <v>0.02559162936547247</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08140842890674131</v>
+        <v>0.07914328932031661</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02581534675536589</v>
+        <v>0.0262194737694753</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02314691331640067</v>
+        <v>0.02334901148907349</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02191513037568515</v>
+        <v>0.02200112903078888</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.06580727161622277</v>
+        <v>0.06488986194997579</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.005120385072730795</v>
+        <v>0.004264179872579476</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.004011626320349095</v>
+        <v>0.004106058934164417</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.003493617221979469</v>
+        <v>0.003458151963184703</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.00152001358072018</v>
+        <v>0.001435160219227965</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01175067766826795</v>
+        <v>0.0119830499108164</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.007723085330556475</v>
+        <v>0.007909469441321031</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.002803157698974947</v>
+        <v>0.003325321229887635</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.003463307322305819</v>
+        <v>0.003050869352313113</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01039615061449486</v>
+        <v>0.009887005582250107</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.007454759399069665</v>
+        <v>0.007368523246974408</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.004414537305517806</v>
+        <v>0.00429899449019541</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.003638185758372104</v>
+        <v>0.003487012190321935</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02067380225369879</v>
+        <v>0.02089485145107745</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01898609937099406</v>
+        <v>0.02020539700172627</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01854194063757944</v>
+        <v>0.01837376385363571</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01687232729028304</v>
+        <v>0.01570759997678142</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03307750892592996</v>
+        <v>0.03264554231123475</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02502586852003226</v>
+        <v>0.02518527461009641</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01736766083043022</v>
+        <v>0.01767290925434617</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01324542112192807</v>
+        <v>0.01311754408835687</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02354934182341431</v>
+        <v>0.02393752479504326</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01895305741371376</v>
+        <v>0.01933514976033047</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01486292624080842</v>
+        <v>0.01425502319889791</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.0120434204982361</v>
+        <v>0.01172315664372712</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01158815509514749</v>
+        <v>0.01165436120412931</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.0125718933395672</v>
+        <v>0.01246725238067391</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.006997990975262458</v>
+        <v>0.00692705366627222</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01970235592698141</v>
+        <v>0.01985882504106729</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01280627484275531</v>
+        <v>0.01277823175217347</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.01714892008005007</v>
+        <v>0.01714078227121765</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.007334009598550106</v>
+        <v>0.007514045091118662</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.02734904724586738</v>
+        <v>0.02770159604796114</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01317702365222394</v>
+        <v>0.0132329115412512</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.01590796817744232</v>
+        <v>0.01599169309993089</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.008108270407287193</v>
+        <v>0.008285745208464814</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.02524895842692105</v>
+        <v>0.02522849162191677</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02029598510543221</v>
+        <v>0.02070527561807825</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.02187300770635209</v>
+        <v>0.02165003313676651</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.01483742541476609</v>
+        <v>0.01384535907345087</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03067287424342505</v>
+        <v>0.03083081296748346</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.02153072434883496</v>
+        <v>0.02123348667878827</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.02748566565721942</v>
+        <v>0.02700577716035648</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.01455612697937936</v>
+        <v>0.01476010044607623</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03729762010274063</v>
+        <v>0.03808307080016007</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.01953924179082834</v>
+        <v>0.01955395868376882</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.02257536967603089</v>
+        <v>0.02298382892787317</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.01344116120552604</v>
+        <v>0.01329757760866854</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.03276450335864829</v>
+        <v>0.03261909199049699</v>
       </c>
     </row>
     <row r="31">
@@ -2144,10 +2144,10 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4929</v>
+        <v>4865</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -2156,28 +2156,28 @@
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5210</v>
+        <v>4912</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2011</v>
+        <v>1969</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2768</v>
+        <v>2887</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2601</v>
+        <v>2805</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>13006</v>
+        <v>12428</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3814</v>
+        <v>3723</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4160</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="7">
@@ -2188,40 +2188,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10183</v>
+        <v>9918</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18686</v>
+        <v>19265</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7520</v>
+        <v>6947</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8198</v>
+        <v>6638</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8775</v>
+        <v>9789</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>19563</v>
+        <v>19566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12308</v>
+        <v>12608</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>10036</v>
+        <v>9930</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14378</v>
+        <v>14794</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>31577</v>
+        <v>31445</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>14611</v>
+        <v>14721</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>14085</v>
+        <v>13129</v>
       </c>
     </row>
     <row r="8">
@@ -2324,40 +2324,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5893</v>
+        <v>6467</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3069</v>
+        <v>3036</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>16883</v>
+        <v>17137</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3265</v>
+        <v>4052</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5093</v>
+        <v>5128</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>23365</v>
+        <v>22581</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>11928</v>
+        <v>12465</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9947</v>
+        <v>10313</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>45039</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="11">
@@ -2368,40 +2368,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19872</v>
+        <v>20670</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16780</v>
+        <v>15194</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6569</v>
+        <v>6891</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>38446</v>
+        <v>37438</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15259</v>
+        <v>16315</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18243</v>
+        <v>17562</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>7141</v>
+        <v>7447</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>41942</v>
+        <v>41977</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>30328</v>
+        <v>31656</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>27702</v>
+        <v>28553</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>10207</v>
+        <v>10489</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>73577</v>
+        <v>72809</v>
       </c>
     </row>
     <row r="12">
@@ -2507,37 +2507,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2057</v>
+        <v>2061</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3650</v>
+        <v>3452</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2263</v>
+        <v>2333</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4917</v>
+        <v>4925</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>7214</v>
+        <v>7135</v>
       </c>
     </row>
     <row r="15">
@@ -2548,40 +2548,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4509</v>
+        <v>5547</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>14725</v>
+        <v>15532</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6410</v>
+        <v>9012</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13170</v>
+        <v>13545</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5356</v>
+        <v>4649</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9691</v>
+        <v>9774</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6339</v>
+        <v>6800</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8694</v>
+        <v>8962</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6747</v>
+        <v>7289</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>19495</v>
+        <v>19264</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9862</v>
+        <v>10418</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>20177</v>
+        <v>19340</v>
       </c>
     </row>
     <row r="16">
@@ -2684,40 +2684,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4096</v>
+        <v>4399</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3097</v>
+        <v>3378</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1808</v>
+        <v>1889</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6276</v>
+        <v>6681</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4318</v>
+        <v>4141</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3799</v>
+        <v>3862</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>7676</v>
+        <v>8045</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>9330</v>
+        <v>8547</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6142</v>
+        <v>6325</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>8987</v>
+        <v>8770</v>
       </c>
     </row>
     <row r="19">
@@ -2728,40 +2728,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17161</v>
+        <v>16273</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10253</v>
+        <v>10046</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10813</v>
+        <v>10485</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>19775</v>
+        <v>18869</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10330</v>
+        <v>11607</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>20993</v>
+        <v>21773</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>18723</v>
+        <v>18472</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>19110</v>
+        <v>18710</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>23097</v>
+        <v>22435</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>25390</v>
+        <v>26049</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>22959</v>
+        <v>23607</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>31018</v>
+        <v>31850</v>
       </c>
     </row>
     <row r="20">
@@ -2864,10 +2864,10 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2707</v>
+        <v>2592</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8051</v>
+        <v>8520</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
@@ -2876,26 +2876,26 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5365</v>
+        <v>5413</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>6875</v>
+        <v>6701</v>
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>2933</v>
+        <v>3132</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>10202</v>
+        <v>9800</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>16976</v>
+        <v>18701</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4201</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="23">
@@ -2906,38 +2906,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12053</v>
+        <v>11766</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>25075</v>
+        <v>25669</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5922</v>
+        <v>6621</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4444</v>
+        <v>3757</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>19199</v>
+        <v>18997</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>22348</v>
+        <v>22072</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>9443</v>
+        <v>9999</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>25927</v>
+        <v>25935</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>38534</v>
+        <v>40407</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>6234</v>
+        <v>6171</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>11995</v>
+        <v>11332</v>
       </c>
     </row>
     <row r="24">
@@ -3046,34 +3046,34 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2821</v>
+        <v>2634</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4436</v>
+        <v>3955</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>944</v>
+        <v>963</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6510</v>
+        <v>6790</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>4878</v>
+        <v>5550</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>12541</v>
+        <v>12566</v>
       </c>
     </row>
     <row r="27">
@@ -3084,40 +3084,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6132</v>
+        <v>5127</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5286</v>
+        <v>5304</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14509</v>
+        <v>13408</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>14390</v>
+        <v>13901</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4852</v>
+        <v>5719</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8062</v>
+        <v>8387</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>9327</v>
+        <v>9852</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>16840</v>
+        <v>17151</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>6886</v>
+        <v>6959</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>9271</v>
+        <v>10518</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>18954</v>
+        <v>18811</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>26621</v>
+        <v>26009</v>
       </c>
     </row>
     <row r="28">
@@ -3220,40 +3220,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4810</v>
+        <v>5446</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2947</v>
+        <v>2848</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4427</v>
+        <v>4309</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>20514</v>
+        <v>18879</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5885</v>
+        <v>5976</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>7356</v>
+        <v>7424</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>3778</v>
+        <v>4432</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>37783</v>
+        <v>36935</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>13637</v>
+        <v>13597</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>11911</v>
+        <v>12666</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>10728</v>
+        <v>10813</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>63205</v>
+        <v>62270</v>
       </c>
     </row>
     <row r="31">
@@ -3264,40 +3264,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>17799</v>
+        <v>18778</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>13838</v>
+        <v>14110</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>19040</v>
+        <v>19070</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>44015</v>
+        <v>43177</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>19565</v>
+        <v>20109</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>22523</v>
+        <v>24224</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>17131</v>
+        <v>17691</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>62852</v>
+        <v>61103</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>32353</v>
+        <v>32859</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>31402</v>
+        <v>31676</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>29538</v>
+        <v>29654</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>98168</v>
+        <v>96799</v>
       </c>
     </row>
     <row r="32">
@@ -3400,40 +3400,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3809</v>
+        <v>3172</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3125</v>
+        <v>3199</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2720</v>
+        <v>2692</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1213</v>
+        <v>1145</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>9207</v>
+        <v>9389</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>6363</v>
+        <v>6516</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2316</v>
+        <v>2747</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2879</v>
+        <v>2536</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>15878</v>
+        <v>15100</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>11950</v>
+        <v>11811</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>7084</v>
+        <v>6899</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>5928</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="35">
@@ -3444,40 +3444,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>15377</v>
+        <v>15541</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>14792</v>
+        <v>15742</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>14436</v>
+        <v>14306</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>13465</v>
+        <v>12536</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>25917</v>
+        <v>25578</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>20618</v>
+        <v>20749</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>14349</v>
+        <v>14601</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>11011</v>
+        <v>10905</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>35967</v>
+        <v>36560</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>30381</v>
+        <v>30993</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>23851</v>
+        <v>22876</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>19624</v>
+        <v>19102</v>
       </c>
     </row>
     <row r="36">
@@ -3580,40 +3580,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>37969</v>
+        <v>38186</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>43081</v>
+        <v>42723</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>23754</v>
+        <v>23513</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>69604</v>
+        <v>70157</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>43275</v>
+        <v>43180</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>61021</v>
+        <v>60992</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>25996</v>
+        <v>26634</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>102202</v>
+        <v>103520</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>87703</v>
+        <v>88075</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>111119</v>
+        <v>111703</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>56262</v>
+        <v>57494</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>183553</v>
+        <v>183404</v>
       </c>
     </row>
     <row r="39">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>66501</v>
+        <v>67842</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>74954</v>
+        <v>74190</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>50363</v>
+        <v>46996</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>108360</v>
+        <v>108918</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>72757</v>
+        <v>71752</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>97802</v>
+        <v>96095</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>51595</v>
+        <v>52318</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>139379</v>
+        <v>142315</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>130048</v>
+        <v>130146</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>157691</v>
+        <v>160544</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>93267</v>
+        <v>92270</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>238189</v>
+        <v>237132</v>
       </c>
     </row>
     <row r="40">
